--- a/biology/Zoologie/Conus_cuna/Conus_cuna.xlsx
+++ b/biology/Zoologie/Conus_cuna/Conus_cuna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus cuna est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large du Panama.
 </t>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus cuna a été décrite pour la première fois en 1998 par le malacologiste américain Edward James Petuch (d) dans « La Conchiglia »[1],[2].
-Synonymes
-Atlanticonus cuna (Petuch, 1998) · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus cuna a été décrite pour la première fois en 1998 par le malacologiste américain Edward James Petuch (d) dans « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_cuna</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_cuna</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Atlanticonus cuna (Petuch, 1998) · non accepté
 Conus (Atlanticonus) cuna Petuch, 1998 · appellation alternative
 Conus (Purpuriconus) cuna Petuch, 1998 · non accepté
 Gladioconus cuna (Petuch, 1998) · non accepté</t>
